--- a/Diagrama Gantt.xlsx
+++ b/Diagrama Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A9E4E8-72EF-470B-BFC1-CDF02CB47327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF5EADF-D089-4E57-9755-A457EA102171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1318,90 +1318,34 @@
   </cellStyles>
   <dxfs count="203">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1635,6 +1579,122 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3706,6 +3766,121 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
@@ -3955,181 +4130,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="1" tint="0.249977111117893"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -4645,7 +4645,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD82988E-1813-40AE-BDE7-9F0200A703CB}" name="Milestones4352" displayName="Milestones4352" ref="B9:G36" totalsRowShown="0" headerRowDxfId="175" dataDxfId="174">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4655,12 +4655,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="187"/>
-    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="186"/>
-    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="185"/>
-    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="184"/>
-    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="183" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="182" dataCellStyle="Comma [0]"/>
+    <tableColumn id="1" xr3:uid="{619BF8F6-D0F1-41AD-871D-FE0240C45A93}" name="Milestone description" dataDxfId="173"/>
+    <tableColumn id="2" xr3:uid="{39BD914E-FB02-4352-846C-6D59624DC0B0}" name="Category" dataDxfId="172"/>
+    <tableColumn id="3" xr3:uid="{D274194F-BCA0-44F3-84B2-217254EE241C}" name="Assigned to" dataDxfId="171"/>
+    <tableColumn id="4" xr3:uid="{8385BC6F-56EE-4363-A106-8DB0A1E4EF5A}" name="Progress" dataDxfId="170"/>
+    <tableColumn id="5" xr3:uid="{02926609-7B93-4B6F-BE96-92EC7A949E4B}" name="Start" dataDxfId="169" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{8FF9BE8E-04B7-4B39-AC27-D2E534204BC3}" name="Days" dataDxfId="168" dataCellStyle="Comma [0]"/>
   </tableColumns>
   <tableStyleInfo name="ToDoList" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -4672,7 +4672,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G41" totalsRowShown="0" headerRowDxfId="181">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0EDB95CA-98FE-4198-8801-690B9B480FDF}" name="Milestones435" displayName="Milestones435" ref="B9:G41" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="B9:G41" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4682,9 +4682,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="180"/>
-    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="179"/>
-    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="178"/>
+    <tableColumn id="1" xr3:uid="{6E47A83D-ACD7-4EB6-9B84-5195E813945E}" name="Milestone description" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{529EEF64-D037-4ACF-8CA4-0C10FE2D1FBB}" name="Category" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{711D01BA-2785-403A-9636-CCC7E2ADA584}" name="Assigned to" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{62B00BEF-16BE-4692-B5E2-F287F680F2C1}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{D6D72902-F68F-4E59-A714-AFFF520C647A}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{93E698DE-286F-49ED-AA20-D0C843671DE8}" name="Days" dataCellStyle="Comma [0]"/>
@@ -4699,7 +4699,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{876EA49D-634E-482B-8173-880F7B761E2C}" name="Milestones43524" displayName="Milestones43524" ref="B9:G36" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="B9:G36" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4709,9 +4709,9 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="175"/>
-    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="174"/>
+    <tableColumn id="1" xr3:uid="{0971B905-713A-4980-8BBC-DF959C2E61F9}" name="Milestone description" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4492A0B8-068F-4002-9E8D-E1F5FED367F0}" name="Category" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DF1A764E-7050-4528-B7F9-B6AB99372146}" name="Assigned to" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{47C54592-75B0-4C70-BBF8-0F40483670E9}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{663FB5E0-7616-4EA5-B56A-FF069E2E07D7}" name="Start" dataCellStyle="Date"/>
     <tableColumn id="6" xr3:uid="{3B766962-C06F-4E12-BE91-12AB93439874}" name="Days" dataCellStyle="Comma [0]"/>
@@ -5474,7 +5474,7 @@
       </c>
       <c r="C6" s="89" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones4352[Start])=0,TODAY(),B11(Milestones4352[Start])),TODAY())</f>
-        <v>44674</v>
+        <v>44701</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="83"/>
@@ -5483,7 +5483,7 @@
       <c r="H6" s="83"/>
       <c r="I6" s="108" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>abril</v>
+        <v>mayo</v>
       </c>
       <c r="J6" s="108"/>
       <c r="K6" s="108"/>
@@ -5493,7 +5493,7 @@
       <c r="O6" s="108"/>
       <c r="P6" s="108" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>mayo</v>
+        <v/>
       </c>
       <c r="Q6" s="108"/>
       <c r="R6" s="108"/>
@@ -5503,7 +5503,7 @@
       <c r="V6" s="108"/>
       <c r="W6" s="108" t="str">
         <f ca="1">IF(OR(TEXT(W7,"mmmm")=P6,TEXT(W7,"mmmm")=I6),"",TEXT(W7,"mmmm"))</f>
-        <v/>
+        <v>junio</v>
       </c>
       <c r="X6" s="108"/>
       <c r="Y6" s="108"/>
@@ -5543,7 +5543,7 @@
       <c r="AX6" s="109"/>
       <c r="AY6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v>junio</v>
+        <v>julio</v>
       </c>
       <c r="AZ6" s="109"/>
       <c r="BA6" s="109"/>
@@ -5578,227 +5578,227 @@
       <c r="H7" s="93"/>
       <c r="I7" s="115">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44675</v>
+        <v>44702</v>
       </c>
       <c r="J7" s="116">
         <f ca="1">I7+1</f>
-        <v>44676</v>
+        <v>44703</v>
       </c>
       <c r="K7" s="116">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44677</v>
+        <v>44704</v>
       </c>
       <c r="L7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44678</v>
+        <v>44705</v>
       </c>
       <c r="M7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44679</v>
+        <v>44706</v>
       </c>
       <c r="N7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44680</v>
+        <v>44707</v>
       </c>
       <c r="O7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44681</v>
+        <v>44708</v>
       </c>
       <c r="P7" s="116">
         <f ca="1">O7+1</f>
-        <v>44682</v>
+        <v>44709</v>
       </c>
       <c r="Q7" s="116">
         <f ca="1">P7+1</f>
-        <v>44683</v>
+        <v>44710</v>
       </c>
       <c r="R7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44684</v>
+        <v>44711</v>
       </c>
       <c r="S7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44685</v>
+        <v>44712</v>
       </c>
       <c r="T7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44686</v>
+        <v>44713</v>
       </c>
       <c r="U7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44687</v>
+        <v>44714</v>
       </c>
       <c r="V7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44688</v>
+        <v>44715</v>
       </c>
       <c r="W7" s="116">
         <f ca="1">V7+1</f>
-        <v>44689</v>
+        <v>44716</v>
       </c>
       <c r="X7" s="116">
         <f ca="1">W7+1</f>
-        <v>44690</v>
+        <v>44717</v>
       </c>
       <c r="Y7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44691</v>
+        <v>44718</v>
       </c>
       <c r="Z7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44692</v>
+        <v>44719</v>
       </c>
       <c r="AA7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44693</v>
+        <v>44720</v>
       </c>
       <c r="AB7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44694</v>
+        <v>44721</v>
       </c>
       <c r="AC7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44695</v>
+        <v>44722</v>
       </c>
       <c r="AD7" s="116">
         <f ca="1">AC7+1</f>
-        <v>44696</v>
+        <v>44723</v>
       </c>
       <c r="AE7" s="116">
         <f ca="1">AD7+1</f>
-        <v>44697</v>
+        <v>44724</v>
       </c>
       <c r="AF7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44698</v>
+        <v>44725</v>
       </c>
       <c r="AG7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44699</v>
+        <v>44726</v>
       </c>
       <c r="AH7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44700</v>
+        <v>44727</v>
       </c>
       <c r="AI7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44701</v>
+        <v>44728</v>
       </c>
       <c r="AJ7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44702</v>
+        <v>44729</v>
       </c>
       <c r="AK7" s="116">
         <f ca="1">AJ7+1</f>
-        <v>44703</v>
+        <v>44730</v>
       </c>
       <c r="AL7" s="116">
         <f ca="1">AK7+1</f>
-        <v>44704</v>
+        <v>44731</v>
       </c>
       <c r="AM7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44705</v>
+        <v>44732</v>
       </c>
       <c r="AN7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44706</v>
+        <v>44733</v>
       </c>
       <c r="AO7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44707</v>
+        <v>44734</v>
       </c>
       <c r="AP7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44708</v>
+        <v>44735</v>
       </c>
       <c r="AQ7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44709</v>
+        <v>44736</v>
       </c>
       <c r="AR7" s="116">
         <f ca="1">AQ7+1</f>
-        <v>44710</v>
+        <v>44737</v>
       </c>
       <c r="AS7" s="116">
         <f ca="1">AR7+1</f>
-        <v>44711</v>
+        <v>44738</v>
       </c>
       <c r="AT7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44712</v>
+        <v>44739</v>
       </c>
       <c r="AU7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44713</v>
+        <v>44740</v>
       </c>
       <c r="AV7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44714</v>
+        <v>44741</v>
       </c>
       <c r="AW7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44715</v>
+        <v>44742</v>
       </c>
       <c r="AX7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44716</v>
+        <v>44743</v>
       </c>
       <c r="AY7" s="116">
         <f ca="1">AX7+1</f>
-        <v>44717</v>
+        <v>44744</v>
       </c>
       <c r="AZ7" s="116">
         <f ca="1">AY7+1</f>
-        <v>44718</v>
+        <v>44745</v>
       </c>
       <c r="BA7" s="116">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44719</v>
+        <v>44746</v>
       </c>
       <c r="BB7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
       <c r="BC7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44721</v>
+        <v>44748</v>
       </c>
       <c r="BD7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44722</v>
+        <v>44749</v>
       </c>
       <c r="BE7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44723</v>
+        <v>44750</v>
       </c>
       <c r="BF7" s="116">
         <f ca="1">BE7+1</f>
-        <v>44724</v>
+        <v>44751</v>
       </c>
       <c r="BG7" s="116">
         <f ca="1">BF7+1</f>
-        <v>44725</v>
+        <v>44752</v>
       </c>
       <c r="BH7" s="116">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44726</v>
+        <v>44753</v>
       </c>
       <c r="BI7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44727</v>
+        <v>44754</v>
       </c>
       <c r="BJ7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44728</v>
+        <v>44755</v>
       </c>
       <c r="BK7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44729</v>
+        <v>44756</v>
       </c>
       <c r="BL7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44730</v>
+        <v>44757</v>
       </c>
       <c r="BM7" s="98"/>
     </row>
@@ -5892,15 +5892,15 @@
       <c r="H9" s="104"/>
       <c r="I9" s="123" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="J9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="K9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="L9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5908,27 +5908,27 @@
       </c>
       <c r="M9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="N9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="O9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="P9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="Q9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="R9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="S9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5936,27 +5936,27 @@
       </c>
       <c r="T9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="U9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="V9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="W9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="X9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="Y9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="Z9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5964,27 +5964,27 @@
       </c>
       <c r="AA9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AB9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AC9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AD9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AE9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AF9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AG9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -5992,27 +5992,27 @@
       </c>
       <c r="AH9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AI9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AJ9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AK9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AL9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AM9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AN9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6020,27 +6020,27 @@
       </c>
       <c r="AO9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AP9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AQ9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AR9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AS9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AT9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AU9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6048,27 +6048,27 @@
       </c>
       <c r="AV9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AW9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AX9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AY9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AZ9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="BA9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BB9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6076,27 +6076,27 @@
       </c>
       <c r="BC9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BD9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BE9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="BF9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BG9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="BH9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BI9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -6104,15 +6104,15 @@
       </c>
       <c r="BJ9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BK9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BL9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="BM9" s="98"/>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44674</v>
+        <v>44701</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -6680,7 +6680,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44679</v>
+        <v>44706</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44671</v>
+        <v>44698</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -7170,7 +7170,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44694</v>
+        <v>44721</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44680</v>
+        <v>44707</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44680</v>
+        <v>44707</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -8145,7 +8145,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44682</v>
+        <v>44709</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44687</v>
+        <v>44714</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -8635,7 +8635,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44689</v>
+        <v>44716</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -8877,7 +8877,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44690</v>
+        <v>44717</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -9358,7 +9358,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44689</v>
+        <v>44716</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -9602,7 +9602,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44692</v>
+        <v>44719</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -9846,7 +9846,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44707</v>
+        <v>44734</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -10090,7 +10090,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44711</v>
+        <v>44738</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -10334,7 +10334,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44680</v>
+        <v>44707</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -10813,7 +10813,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44714</v>
+        <v>44741</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -11055,7 +11055,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44728</v>
+        <v>44755</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -11299,7 +11299,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44770</v>
+        <v>44797</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -12343,56 +12343,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="173" priority="1">
+    <cfRule type="expression" dxfId="189" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="172" priority="4">
+    <cfRule type="expression" dxfId="188" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="171" priority="3">
+    <cfRule type="expression" dxfId="187" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="170" priority="2">
+    <cfRule type="expression" dxfId="186" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="169" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="164" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12526,11 +12526,11 @@
   <dimension ref="A1:BM43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="7" topLeftCell="I21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="7" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="I2" sqref="I2"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16852,56 +16852,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL10 I35:BL35 I26:BL26 I28:BL28 I31:BL31 I41:BL41 I37:BL37">
-    <cfRule type="expression" dxfId="159" priority="195">
+    <cfRule type="expression" dxfId="167" priority="195">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="158" priority="198">
+    <cfRule type="expression" dxfId="166" priority="198">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="157" priority="197">
+    <cfRule type="expression" dxfId="165" priority="197">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="156" priority="196">
+    <cfRule type="expression" dxfId="164" priority="196">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL10 I35:BL35 I26:BL26 I28:BL28 I31:BL31 I37:BL37">
-    <cfRule type="expression" dxfId="155" priority="201" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="201" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="202" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="202" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="203" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="203" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="204" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="204" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="205" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:BL41">
-    <cfRule type="expression" dxfId="150" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="207" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="208" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="209" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="210" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="211" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16920,46 +16920,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="145" priority="187">
+    <cfRule type="expression" dxfId="153" priority="187">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="144" priority="189" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="189" stopIfTrue="1">
       <formula>AND($C33="Low Risk",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="190" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="190" stopIfTrue="1">
       <formula>AND($C33="High Risk",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="191" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="191" stopIfTrue="1">
       <formula>AND($C33="On Track",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="192" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="192" stopIfTrue="1">
       <formula>AND($C33="Med Risk",I$7&gt;=$F33,I$7&lt;=$F33+$G33-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="193" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="193" stopIfTrue="1">
       <formula>AND(LEN($C33)=0,I$7&gt;=$F33,I$7&lt;=$F33+$G33-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="139" priority="171">
+    <cfRule type="expression" dxfId="147" priority="171">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:BL15">
-    <cfRule type="expression" dxfId="138" priority="173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="173" stopIfTrue="1">
       <formula>AND($C15="Low Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="174" stopIfTrue="1">
       <formula>AND($C15="High Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="175" stopIfTrue="1">
       <formula>AND($C15="On Track",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="176" stopIfTrue="1">
       <formula>AND($C15="Med Risk",I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="177" stopIfTrue="1">
       <formula>AND(LEN($C15)=0,I$7&gt;=$F15,I$7&lt;=$F15+$G15-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16978,24 +16978,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="133" priority="163">
+    <cfRule type="expression" dxfId="141" priority="163">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:BL12">
-    <cfRule type="expression" dxfId="132" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="164" stopIfTrue="1">
       <formula>AND($C12="Low Risk",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="165" stopIfTrue="1">
       <formula>AND($C12="High Risk",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="166" stopIfTrue="1">
       <formula>AND($C12="On Track",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="167" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="167" stopIfTrue="1">
       <formula>AND($C12="Med Risk",I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="168" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="168" stopIfTrue="1">
       <formula>AND(LEN($C12)=0,I$7&gt;=$F12,I$7&lt;=$F12+$G12-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17014,24 +17014,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="127" priority="155">
+    <cfRule type="expression" dxfId="135" priority="155">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:BL21">
-    <cfRule type="expression" dxfId="126" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="156" stopIfTrue="1">
       <formula>AND($C21="Low Risk",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="157" stopIfTrue="1">
       <formula>AND($C21="High Risk",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="158" stopIfTrue="1">
       <formula>AND($C21="On Track",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="159" stopIfTrue="1">
       <formula>AND($C21="Med Risk",I$7&gt;=$F21,I$7&lt;=$F21+$G21-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="160" stopIfTrue="1">
       <formula>AND(LEN($C21)=0,I$7&gt;=$F21,I$7&lt;=$F21+$G21-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17050,24 +17050,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL20">
-    <cfRule type="expression" dxfId="121" priority="147">
+    <cfRule type="expression" dxfId="129" priority="147">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL20">
-    <cfRule type="expression" dxfId="120" priority="148" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="148" stopIfTrue="1">
       <formula>AND($C17="Low Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="149" stopIfTrue="1">
       <formula>AND($C17="High Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="150" stopIfTrue="1">
       <formula>AND($C17="On Track",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="151" stopIfTrue="1">
       <formula>AND($C17="Med Risk",I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="152" stopIfTrue="1">
       <formula>AND(LEN($C17)=0,I$7&gt;=$F17,I$7&lt;=$F17+$G17-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17086,24 +17086,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BL23">
-    <cfRule type="expression" dxfId="115" priority="139">
+    <cfRule type="expression" dxfId="123" priority="139">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23:BL23">
-    <cfRule type="expression" dxfId="114" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="140" stopIfTrue="1">
       <formula>AND($C23="Low Risk",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="141" stopIfTrue="1">
       <formula>AND($C23="High Risk",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="142" stopIfTrue="1">
       <formula>AND($C23="On Track",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="143" stopIfTrue="1">
       <formula>AND($C23="Med Risk",I$7&gt;=$F23,I$7&lt;=$F23+$G23-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="144" stopIfTrue="1">
       <formula>AND(LEN($C23)=0,I$7&gt;=$F23,I$7&lt;=$F23+$G23-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17122,24 +17122,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="109" priority="131">
+    <cfRule type="expression" dxfId="117" priority="131">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:BL27">
-    <cfRule type="expression" dxfId="108" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="132" stopIfTrue="1">
       <formula>AND($C27="Low Risk",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="133" stopIfTrue="1">
       <formula>AND($C27="High Risk",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="134" stopIfTrue="1">
       <formula>AND($C27="On Track",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="135" stopIfTrue="1">
       <formula>AND($C27="Med Risk",I$7&gt;=$F27,I$7&lt;=$F27+$G27-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="136" stopIfTrue="1">
       <formula>AND(LEN($C27)=0,I$7&gt;=$F27,I$7&lt;=$F27+$G27-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17158,24 +17158,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="103" priority="123">
+    <cfRule type="expression" dxfId="111" priority="123">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="102" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="124" stopIfTrue="1">
       <formula>AND($C30="Low Risk",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="125" stopIfTrue="1">
       <formula>AND($C30="High Risk",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="126" stopIfTrue="1">
       <formula>AND($C30="On Track",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="127" stopIfTrue="1">
       <formula>AND($C30="Med Risk",I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="128" stopIfTrue="1">
       <formula>AND(LEN($C30)=0,I$7&gt;=$F30,I$7&lt;=$F30+$G30-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17208,24 +17208,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="97" priority="114">
+    <cfRule type="expression" dxfId="105" priority="114">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:BL24">
-    <cfRule type="expression" dxfId="96" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="116" stopIfTrue="1">
       <formula>AND($C24="Low Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="117" stopIfTrue="1">
       <formula>AND($C24="High Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="118" stopIfTrue="1">
       <formula>AND($C24="On Track",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="119" stopIfTrue="1">
       <formula>AND($C24="Med Risk",I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="120" stopIfTrue="1">
       <formula>AND(LEN($C24)=0,I$7&gt;=$F24,I$7&lt;=$F24+$G24-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17244,24 +17244,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="91" priority="106">
+    <cfRule type="expression" dxfId="99" priority="106">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:BL22">
-    <cfRule type="expression" dxfId="90" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="108" stopIfTrue="1">
       <formula>AND($C22="Low Risk",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="109" stopIfTrue="1">
       <formula>AND($C22="High Risk",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="110" stopIfTrue="1">
       <formula>AND($C22="On Track",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="111" stopIfTrue="1">
       <formula>AND($C22="Med Risk",I$7&gt;=$F22,I$7&lt;=$F22+$G22-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="112" stopIfTrue="1">
       <formula>AND(LEN($C22)=0,I$7&gt;=$F22,I$7&lt;=$F22+$G22-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17280,24 +17280,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="85" priority="98">
+    <cfRule type="expression" dxfId="93" priority="98">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:BL16">
-    <cfRule type="expression" dxfId="84" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="100" stopIfTrue="1">
       <formula>AND($C16="Low Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="101" stopIfTrue="1">
       <formula>AND($C16="High Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="102" stopIfTrue="1">
       <formula>AND($C16="On Track",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="103" stopIfTrue="1">
       <formula>AND($C16="Med Risk",I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="104" stopIfTrue="1">
       <formula>AND(LEN($C16)=0,I$7&gt;=$F16,I$7&lt;=$F16+$G16-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17316,46 +17316,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BL13">
-    <cfRule type="expression" dxfId="79" priority="90">
+    <cfRule type="expression" dxfId="87" priority="90">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:BL13">
-    <cfRule type="expression" dxfId="78" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="92" stopIfTrue="1">
       <formula>AND($C13="Low Risk",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="93" stopIfTrue="1">
       <formula>AND($C13="High Risk",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="94" stopIfTrue="1">
       <formula>AND($C13="On Track",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="95" stopIfTrue="1">
       <formula>AND($C13="Med Risk",I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="96" stopIfTrue="1">
       <formula>AND(LEN($C13)=0,I$7&gt;=$F13,I$7&lt;=$F13+$G13-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="73" priority="83">
+    <cfRule type="expression" dxfId="81" priority="83">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
-    <cfRule type="expression" dxfId="72" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="84" stopIfTrue="1">
       <formula>AND($C34="Low Risk",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="85" stopIfTrue="1">
       <formula>AND($C34="High Risk",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="86" stopIfTrue="1">
       <formula>AND($C34="On Track",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="87" stopIfTrue="1">
       <formula>AND($C34="Med Risk",I$7&gt;=$F34,I$7&lt;=$F34+$G34-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="88" stopIfTrue="1">
       <formula>AND(LEN($C34)=0,I$7&gt;=$F34,I$7&lt;=$F34+$G34-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17374,24 +17374,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="67" priority="67">
+    <cfRule type="expression" dxfId="75" priority="67">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:BL29">
-    <cfRule type="expression" dxfId="66" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="68" stopIfTrue="1">
       <formula>AND($C29="Low Risk",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="69" stopIfTrue="1">
       <formula>AND($C29="High Risk",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="70" stopIfTrue="1">
       <formula>AND($C29="On Track",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="71" stopIfTrue="1">
       <formula>AND($C29="Med Risk",I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="72" stopIfTrue="1">
       <formula>AND(LEN($C29)=0,I$7&gt;=$F29,I$7&lt;=$F29+$G29-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17410,24 +17410,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="69" priority="59">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="60" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="60" stopIfTrue="1">
       <formula>AND($C38="Low Risk",I$7&gt;=$F38,I$7&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="61" stopIfTrue="1">
       <formula>AND($C38="High Risk",I$7&gt;=$F38,I$7&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="62" stopIfTrue="1">
       <formula>AND($C38="On Track",I$7&gt;=$F38,I$7&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="63" stopIfTrue="1">
       <formula>AND($C38="Med Risk",I$7&gt;=$F38,I$7&lt;=$F38+$G38-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="64" stopIfTrue="1">
       <formula>AND(LEN($C38)=0,I$7&gt;=$F38,I$7&lt;=$F38+$G38-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17446,24 +17446,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="55" priority="51">
+    <cfRule type="expression" dxfId="63" priority="51">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:BL40">
-    <cfRule type="expression" dxfId="54" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="52" stopIfTrue="1">
       <formula>AND($C40="Low Risk",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="53" stopIfTrue="1">
       <formula>AND($C40="High Risk",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="54" stopIfTrue="1">
       <formula>AND($C40="On Track",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="55" stopIfTrue="1">
       <formula>AND($C40="Med Risk",I$7&gt;=$F40,I$7&lt;=$F40+$G40-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="56" stopIfTrue="1">
       <formula>AND(LEN($C40)=0,I$7&gt;=$F40,I$7&lt;=$F40+$G40-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17496,46 +17496,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:BL11">
-    <cfRule type="expression" dxfId="49" priority="42">
+    <cfRule type="expression" dxfId="57" priority="42">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:BL11">
-    <cfRule type="expression" dxfId="48" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="44" stopIfTrue="1">
       <formula>AND($C11="Low Risk",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="45" stopIfTrue="1">
       <formula>AND($C11="High Risk",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="46" stopIfTrue="1">
       <formula>AND($C11="On Track",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="47" stopIfTrue="1">
       <formula>AND($C11="Med Risk",I$7&gt;=$F11,I$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="48" stopIfTrue="1">
       <formula>AND(LEN($C11)=0,I$7&gt;=$F11,I$7&lt;=$F11+$G11-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="43" priority="35">
+    <cfRule type="expression" dxfId="51" priority="35">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:BL25">
-    <cfRule type="expression" dxfId="42" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="36" stopIfTrue="1">
       <formula>AND($C25="Low Risk",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="37" stopIfTrue="1">
       <formula>AND($C25="High Risk",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="38" stopIfTrue="1">
       <formula>AND($C25="On Track",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="39" stopIfTrue="1">
       <formula>AND($C25="Med Risk",I$7&gt;=$F25,I$7&lt;=$F25+$G25-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="40" stopIfTrue="1">
       <formula>AND(LEN($C25)=0,I$7&gt;=$F25,I$7&lt;=$F25+$G25-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17554,24 +17554,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="37" priority="27">
+    <cfRule type="expression" dxfId="45" priority="27">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="36" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="28" stopIfTrue="1">
       <formula>AND($C36="Low Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
       <formula>AND($C36="High Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="30" stopIfTrue="1">
       <formula>AND($C36="On Track",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="31" stopIfTrue="1">
       <formula>AND($C36="Med Risk",I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="32" stopIfTrue="1">
       <formula>AND(LEN($C36)=0,I$7&gt;=$F36,I$7&lt;=$F36+$G36-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17590,24 +17590,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="39" priority="19">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="30" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="20" stopIfTrue="1">
       <formula>AND($C32="Low Risk",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="21" stopIfTrue="1">
       <formula>AND($C32="High Risk",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="22" stopIfTrue="1">
       <formula>AND($C32="On Track",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="23" stopIfTrue="1">
       <formula>AND($C32="Med Risk",I$7&gt;=$F32,I$7&lt;=$F32+$G32-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="24" stopIfTrue="1">
       <formula>AND(LEN($C32)=0,I$7&gt;=$F32,I$7&lt;=$F32+$G32-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17640,24 +17640,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="33" priority="10">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:BL39">
-    <cfRule type="expression" dxfId="24" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
       <formula>AND($C39="Low Risk",I$7&gt;=$F39,I$7&lt;=$F39+$G39-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="12" stopIfTrue="1">
       <formula>AND($C39="High Risk",I$7&gt;=$F39,I$7&lt;=$F39+$G39-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="13" stopIfTrue="1">
       <formula>AND($C39="On Track",I$7&gt;=$F39,I$7&lt;=$F39+$G39-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="14" stopIfTrue="1">
       <formula>AND($C39="Med Risk",I$7&gt;=$F39,I$7&lt;=$F39+$G39-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="15" stopIfTrue="1">
       <formula>AND(LEN($C39)=0,I$7&gt;=$F39,I$7&lt;=$F39+$G39-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17676,24 +17676,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:BL14">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>AND($C14="Low Risk",I$7&gt;=$F14,I$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="4" stopIfTrue="1">
       <formula>AND($C14="High Risk",I$7&gt;=$F14,I$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
       <formula>AND($C14="On Track",I$7&gt;=$F14,I$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="6" stopIfTrue="1">
       <formula>AND($C14="Med Risk",I$7&gt;=$F14,I$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="7" stopIfTrue="1">
       <formula>AND(LEN($C14)=0,I$7&gt;=$F14,I$7&lt;=$F14+$G14-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18118,6 +18118,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>E39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33038FFF-1501-4552-9AA8-A78978413835}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="206" id="{3EF75A3E-8286-4296-914E-C8F63A2E14FB}">
@@ -18557,21 +18572,6 @@
           <xm:sqref>I39:BL39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33038FFF-1501-4552-9AA8-A78978413835}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>E14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="8" id="{F62EC2C1-6CE5-4E1F-9A10-60A80CCC8596}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -18914,7 +18914,7 @@
       </c>
       <c r="C6" s="89" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">IFERROR(IF(MIN(Milestones43524[Start])=0,TODAY(),B11(Milestones43524[Start])),TODAY())</f>
-        <v>44674</v>
+        <v>44701</v>
       </c>
       <c r="D6" s="90"/>
       <c r="E6" s="83"/>
@@ -18923,7 +18923,7 @@
       <c r="H6" s="83"/>
       <c r="I6" s="108" t="str">
         <f ca="1">TEXT(I7,"mmmm")</f>
-        <v>abril</v>
+        <v>mayo</v>
       </c>
       <c r="J6" s="108"/>
       <c r="K6" s="108"/>
@@ -18933,7 +18933,7 @@
       <c r="O6" s="108"/>
       <c r="P6" s="108" t="str">
         <f ca="1">IF(TEXT(P7,"mmmm")=I6,"",TEXT(P7,"mmmm"))</f>
-        <v>mayo</v>
+        <v>junio</v>
       </c>
       <c r="Q6" s="108"/>
       <c r="R6" s="108"/>
@@ -18973,7 +18973,7 @@
       <c r="AQ6" s="108"/>
       <c r="AR6" s="108" t="str">
         <f ca="1">IF(OR(TEXT(AR7,"mmmm")=AK6,TEXT(AR7,"mmmm")=AD6,TEXT(AR7,"mmmm")=W6,TEXT(AR7,"mmmm")=P6),"",TEXT(AR7,"mmmm"))</f>
-        <v>junio</v>
+        <v/>
       </c>
       <c r="AS6" s="108"/>
       <c r="AT6" s="108"/>
@@ -18983,7 +18983,7 @@
       <c r="AX6" s="109"/>
       <c r="AY6" s="109" t="str">
         <f ca="1">IF(OR(TEXT(AY7,"mmmm")=AR6,TEXT(AY7,"mmmm")=AK6,TEXT(AY7,"mmmm")=AD6,TEXT(AY7,"mmmm")=W6),"",TEXT(AY7,"mmmm"))</f>
-        <v/>
+        <v>julio</v>
       </c>
       <c r="AZ6" s="109"/>
       <c r="BA6" s="109"/>
@@ -19018,227 +19018,227 @@
       <c r="H7" s="93"/>
       <c r="I7" s="115">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>44679</v>
+        <v>44706</v>
       </c>
       <c r="J7" s="116">
         <f ca="1">I7+1</f>
-        <v>44680</v>
+        <v>44707</v>
       </c>
       <c r="K7" s="116">
         <f t="shared" ref="K7:AX7" ca="1" si="0">J7+1</f>
-        <v>44681</v>
+        <v>44708</v>
       </c>
       <c r="L7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44682</v>
+        <v>44709</v>
       </c>
       <c r="M7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44683</v>
+        <v>44710</v>
       </c>
       <c r="N7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44684</v>
+        <v>44711</v>
       </c>
       <c r="O7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44685</v>
+        <v>44712</v>
       </c>
       <c r="P7" s="116">
         <f ca="1">O7+1</f>
-        <v>44686</v>
+        <v>44713</v>
       </c>
       <c r="Q7" s="116">
         <f ca="1">P7+1</f>
-        <v>44687</v>
+        <v>44714</v>
       </c>
       <c r="R7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44688</v>
+        <v>44715</v>
       </c>
       <c r="S7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44689</v>
+        <v>44716</v>
       </c>
       <c r="T7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44690</v>
+        <v>44717</v>
       </c>
       <c r="U7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44691</v>
+        <v>44718</v>
       </c>
       <c r="V7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44692</v>
+        <v>44719</v>
       </c>
       <c r="W7" s="116">
         <f ca="1">V7+1</f>
-        <v>44693</v>
+        <v>44720</v>
       </c>
       <c r="X7" s="116">
         <f ca="1">W7+1</f>
-        <v>44694</v>
+        <v>44721</v>
       </c>
       <c r="Y7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44695</v>
+        <v>44722</v>
       </c>
       <c r="Z7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44696</v>
+        <v>44723</v>
       </c>
       <c r="AA7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44697</v>
+        <v>44724</v>
       </c>
       <c r="AB7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44698</v>
+        <v>44725</v>
       </c>
       <c r="AC7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44699</v>
+        <v>44726</v>
       </c>
       <c r="AD7" s="116">
         <f ca="1">AC7+1</f>
-        <v>44700</v>
+        <v>44727</v>
       </c>
       <c r="AE7" s="116">
         <f ca="1">AD7+1</f>
-        <v>44701</v>
+        <v>44728</v>
       </c>
       <c r="AF7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44702</v>
+        <v>44729</v>
       </c>
       <c r="AG7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44703</v>
+        <v>44730</v>
       </c>
       <c r="AH7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44704</v>
+        <v>44731</v>
       </c>
       <c r="AI7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44705</v>
+        <v>44732</v>
       </c>
       <c r="AJ7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44706</v>
+        <v>44733</v>
       </c>
       <c r="AK7" s="116">
         <f ca="1">AJ7+1</f>
-        <v>44707</v>
+        <v>44734</v>
       </c>
       <c r="AL7" s="116">
         <f ca="1">AK7+1</f>
-        <v>44708</v>
+        <v>44735</v>
       </c>
       <c r="AM7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44709</v>
+        <v>44736</v>
       </c>
       <c r="AN7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44710</v>
+        <v>44737</v>
       </c>
       <c r="AO7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44711</v>
+        <v>44738</v>
       </c>
       <c r="AP7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44712</v>
+        <v>44739</v>
       </c>
       <c r="AQ7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44713</v>
+        <v>44740</v>
       </c>
       <c r="AR7" s="116">
         <f ca="1">AQ7+1</f>
-        <v>44714</v>
+        <v>44741</v>
       </c>
       <c r="AS7" s="116">
         <f ca="1">AR7+1</f>
-        <v>44715</v>
+        <v>44742</v>
       </c>
       <c r="AT7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44716</v>
+        <v>44743</v>
       </c>
       <c r="AU7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44717</v>
+        <v>44744</v>
       </c>
       <c r="AV7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44718</v>
+        <v>44745</v>
       </c>
       <c r="AW7" s="116">
         <f t="shared" ca="1" si="0"/>
-        <v>44719</v>
+        <v>44746</v>
       </c>
       <c r="AX7" s="117">
         <f t="shared" ca="1" si="0"/>
-        <v>44720</v>
+        <v>44747</v>
       </c>
       <c r="AY7" s="116">
         <f ca="1">AX7+1</f>
-        <v>44721</v>
+        <v>44748</v>
       </c>
       <c r="AZ7" s="116">
         <f ca="1">AY7+1</f>
-        <v>44722</v>
+        <v>44749</v>
       </c>
       <c r="BA7" s="116">
         <f t="shared" ref="BA7:BE7" ca="1" si="1">AZ7+1</f>
-        <v>44723</v>
+        <v>44750</v>
       </c>
       <c r="BB7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44724</v>
+        <v>44751</v>
       </c>
       <c r="BC7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44725</v>
+        <v>44752</v>
       </c>
       <c r="BD7" s="116">
         <f t="shared" ca="1" si="1"/>
-        <v>44726</v>
+        <v>44753</v>
       </c>
       <c r="BE7" s="117">
         <f t="shared" ca="1" si="1"/>
-        <v>44727</v>
+        <v>44754</v>
       </c>
       <c r="BF7" s="116">
         <f ca="1">BE7+1</f>
-        <v>44728</v>
+        <v>44755</v>
       </c>
       <c r="BG7" s="116">
         <f ca="1">BF7+1</f>
-        <v>44729</v>
+        <v>44756</v>
       </c>
       <c r="BH7" s="116">
         <f t="shared" ref="BH7:BL7" ca="1" si="2">BG7+1</f>
-        <v>44730</v>
+        <v>44757</v>
       </c>
       <c r="BI7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44731</v>
+        <v>44758</v>
       </c>
       <c r="BJ7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44732</v>
+        <v>44759</v>
       </c>
       <c r="BK7" s="116">
         <f t="shared" ca="1" si="2"/>
-        <v>44733</v>
+        <v>44760</v>
       </c>
       <c r="BL7" s="117">
         <f t="shared" ca="1" si="2"/>
-        <v>44734</v>
+        <v>44761</v>
       </c>
       <c r="BM7" s="98"/>
     </row>
@@ -19332,27 +19332,27 @@
       <c r="H9" s="104"/>
       <c r="I9" s="123" t="str">
         <f t="shared" ref="I9:BL9" ca="1" si="3">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="J9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="K9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="L9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="M9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="N9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="O9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19360,27 +19360,27 @@
       </c>
       <c r="P9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="Q9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="R9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="S9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="T9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="U9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="V9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19388,27 +19388,27 @@
       </c>
       <c r="W9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="X9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="Y9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="Z9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AA9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AB9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AC9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19416,27 +19416,27 @@
       </c>
       <c r="AD9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AE9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AF9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AG9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AH9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AI9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AJ9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19444,27 +19444,27 @@
       </c>
       <c r="AK9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AL9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AM9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AN9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AO9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AP9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AQ9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19472,27 +19472,27 @@
       </c>
       <c r="AR9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AS9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AT9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="AU9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="AV9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="AW9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="AX9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19500,27 +19500,27 @@
       </c>
       <c r="AY9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="AZ9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BA9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="BB9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BC9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="BD9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BE9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19528,27 +19528,27 @@
       </c>
       <c r="BF9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>j</v>
+        <v>m</v>
       </c>
       <c r="BG9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BH9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>s</v>
+        <v>v</v>
       </c>
       <c r="BI9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>d</v>
+        <v>s</v>
       </c>
       <c r="BJ9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>l</v>
+        <v>d</v>
       </c>
       <c r="BK9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="BL9" s="123" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -19876,7 +19876,7 @@
       </c>
       <c r="F12" s="69">
         <f ca="1">TODAY()</f>
-        <v>44674</v>
+        <v>44701</v>
       </c>
       <c r="G12" s="70">
         <v>3</v>
@@ -20120,7 +20120,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="69">
         <f ca="1">TODAY()+5</f>
-        <v>44679</v>
+        <v>44706</v>
       </c>
       <c r="G13" s="70">
         <v>1</v>
@@ -20366,7 +20366,7 @@
       </c>
       <c r="F14" s="69">
         <f ca="1">F12-3</f>
-        <v>44671</v>
+        <v>44698</v>
       </c>
       <c r="G14" s="70">
         <v>10</v>
@@ -20610,7 +20610,7 @@
       <c r="E15" s="68"/>
       <c r="F15" s="69">
         <f ca="1">F12+20</f>
-        <v>44694</v>
+        <v>44721</v>
       </c>
       <c r="G15" s="70">
         <v>1</v>
@@ -20856,7 +20856,7 @@
       </c>
       <c r="F16" s="69">
         <f ca="1">F12+6</f>
-        <v>44680</v>
+        <v>44707</v>
       </c>
       <c r="G16" s="70">
         <v>6</v>
@@ -21339,7 +21339,7 @@
       </c>
       <c r="F18" s="69">
         <f ca="1">F12+6</f>
-        <v>44680</v>
+        <v>44707</v>
       </c>
       <c r="G18" s="70">
         <v>13</v>
@@ -21585,7 +21585,7 @@
       </c>
       <c r="F19" s="69">
         <f ca="1">F18+2</f>
-        <v>44682</v>
+        <v>44709</v>
       </c>
       <c r="G19" s="70">
         <v>9</v>
@@ -21831,7 +21831,7 @@
       </c>
       <c r="F20" s="69">
         <f ca="1">F19+5</f>
-        <v>44687</v>
+        <v>44714</v>
       </c>
       <c r="G20" s="70">
         <v>11</v>
@@ -22075,7 +22075,7 @@
       <c r="E21" s="68"/>
       <c r="F21" s="69">
         <f ca="1">F20+2</f>
-        <v>44689</v>
+        <v>44716</v>
       </c>
       <c r="G21" s="70">
         <v>1</v>
@@ -22317,7 +22317,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69">
         <f ca="1">F21+1</f>
-        <v>44690</v>
+        <v>44717</v>
       </c>
       <c r="G22" s="70">
         <v>24</v>
@@ -22798,7 +22798,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="69">
         <f ca="1">F12+15</f>
-        <v>44689</v>
+        <v>44716</v>
       </c>
       <c r="G24" s="70">
         <v>4</v>
@@ -23042,7 +23042,7 @@
       <c r="E25" s="68"/>
       <c r="F25" s="69">
         <f ca="1">F24+3</f>
-        <v>44692</v>
+        <v>44719</v>
       </c>
       <c r="G25" s="70">
         <v>14</v>
@@ -23286,7 +23286,7 @@
       <c r="E26" s="68"/>
       <c r="F26" s="69">
         <f ca="1">F25+15</f>
-        <v>44707</v>
+        <v>44734</v>
       </c>
       <c r="G26" s="70">
         <v>6</v>
@@ -23530,7 +23530,7 @@
       <c r="E27" s="68"/>
       <c r="F27" s="69">
         <f ca="1">F21+22</f>
-        <v>44711</v>
+        <v>44738</v>
       </c>
       <c r="G27" s="70">
         <v>3</v>
@@ -23774,7 +23774,7 @@
       <c r="E28" s="68"/>
       <c r="F28" s="69">
         <f ca="1">F16</f>
-        <v>44680</v>
+        <v>44707</v>
       </c>
       <c r="G28" s="70">
         <v>19</v>
@@ -24253,7 +24253,7 @@
       <c r="E30" s="68"/>
       <c r="F30" s="69">
         <f ca="1">F27+3</f>
-        <v>44714</v>
+        <v>44741</v>
       </c>
       <c r="G30" s="70">
         <v>15</v>
@@ -24495,7 +24495,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="69">
         <f ca="1">F30+14</f>
-        <v>44728</v>
+        <v>44755</v>
       </c>
       <c r="G31" s="70">
         <v>5</v>
@@ -24739,7 +24739,7 @@
       <c r="E32" s="68"/>
       <c r="F32" s="69">
         <f ca="1">F31+42</f>
-        <v>44770</v>
+        <v>44797</v>
       </c>
       <c r="G32" s="70">
         <v>1</v>
@@ -25783,56 +25783,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL36">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="17" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="17" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="16" priority="2">
+    <cfRule type="expression" dxfId="14" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL35">
-    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36:BL36">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>AND(#REF!="Low Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>AND(#REF!="High Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>AND(#REF!="On Track",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="16" stopIfTrue="1">
       <formula>AND(#REF!="Med Risk",I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="17" stopIfTrue="1">
       <formula>AND(LEN(#REF!)=0,I$7&gt;=#REF!,I$7&lt;=#REF!+#REF!-1)</formula>
     </cfRule>
   </conditionalFormatting>
